--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo confidencial bajo</t>
+          <t>Apoyo confidencial bajo (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>64,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,64; 69,87</t>
+          <t>55,55; 72,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,54; 59,18</t>
+          <t>36,18; 59,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,16; 77,94</t>
+          <t>57,05; 77,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,71; 60,5</t>
+          <t>40,22; 60,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,52; 71,4</t>
+          <t>59,01; 72,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,31; 55,73</t>
+          <t>40,94; 55,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,8; 74,43</t>
+          <t>51,71; 70,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,72; 68,86</t>
+          <t>51,08; 68,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,47; 81,8</t>
+          <t>68,08; 82,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,12; 59,45</t>
+          <t>22,54; 59,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,01; 76,55</t>
+          <t>62,27; 74,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 59,87</t>
+          <t>33,28; 60,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,8; 82,67</t>
+          <t>74,32; 84,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,45; 66,52</t>
+          <t>55,53; 66,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,0; 85,55</t>
+          <t>74,15; 84,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,47; 67,71</t>
+          <t>58,55; 67,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,7; 82,94</t>
+          <t>76,03; 83,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,96; 66,03</t>
+          <t>58,6; 65,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,28%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,38%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,16; 83,08</t>
+          <t>78,5; 86,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,28; 63,25</t>
+          <t>13,43; 63,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,64; 88,57</t>
+          <t>80,28; 88,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,65; 69,01</t>
+          <t>61,47; 69,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,53; 85,01</t>
+          <t>80,86; 86,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,99; 64,44</t>
+          <t>23,76; 64,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>80,66%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,56; 82,22</t>
+          <t>74,15; 84,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,57; 74,93</t>
+          <t>65,41; 74,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,29; 86,11</t>
+          <t>79,38; 87,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,98; 76,33</t>
+          <t>68,14; 75,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,58; 83,2</t>
+          <t>78,23; 84,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,04; 74,17</t>
+          <t>67,77; 74,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>72,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>62,14; 72,94</t>
+          <t>61,5; 73,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>63,57; 73,69</t>
+          <t>63,02; 73,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>70,43; 79,67</t>
+          <t>72,3; 82,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>61,25; 69,68</t>
+          <t>60,66; 69,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,12; 75,46</t>
+          <t>69,02; 76,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>63,03; 69,89</t>
+          <t>63,32; 70,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>75,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>78,54%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>68,76; 78,95</t>
+          <t>70,16; 81,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,94; 80,0</t>
+          <t>67,92; 79,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>74,29; 82,76</t>
+          <t>72,27; 81,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,55; 77,55</t>
+          <t>68,67; 77,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>73,19; 79,6</t>
+          <t>73,3; 80,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>70,44; 77,15</t>
+          <t>70,08; 76,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,56; 76,0</t>
+          <t>72,3; 76,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>36,95; 63,67</t>
+          <t>38,05; 63,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>77,69; 81,31</t>
+          <t>77,2; 81,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,92; 65,3</t>
+          <t>55,48; 65,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>75,58; 78,21</t>
+          <t>75,49; 78,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,35; 63,51</t>
+          <t>45,22; 63,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15710</t>
+          <t>44481</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16512</t>
+          <t>48733</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32222</t>
+          <t>93213</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13680; 17819</t>
+          <t>38476; 50110</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84770; 137296</t>
+          <t>83943; 137031</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14667; 18388</t>
+          <t>40748; 55228</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74007; 109980</t>
+          <t>73124; 109961</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29222; 35053</t>
+          <t>83026; 102046</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>166790; 230580</t>
+          <t>169388; 230984</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19403</t>
+          <t>56493</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24066</t>
+          <t>69219</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43469</t>
+          <t>125713</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16974; 21486</t>
+          <t>47149; 64574</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>117910; 156981</t>
+          <t>116440; 156060</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21735; 26351</t>
+          <t>62063; 75221</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65803; 185264</t>
+          <t>70225; 184704</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40321; 46758</t>
+          <t>113545; 135983</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>165131; 323040</t>
+          <t>179571; 325815</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36490</t>
+          <t>102655</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41797</t>
+          <t>101002</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78287</t>
+          <t>203657</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>33786; 38897</t>
+          <t>95602; 108850</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>170088; 204032</t>
+          <t>170313; 205072</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38998; 43902</t>
+          <t>93495; 106349</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>188021; 217732</t>
+          <t>188283; 216701</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74468; 81588</t>
+          <t>193681; 212005</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>370443; 414843</t>
+          <t>368189; 414305</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>57083</t>
+          <t>125369</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>62836</t>
+          <t>127517</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>119919</t>
+          <t>252886</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53392; 59817</t>
+          <t>118871; 131128</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82749; 394024</t>
+          <t>83649; 393892</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60065; 65167</t>
+          <t>121095; 133342</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>247879; 277494</t>
+          <t>247155; 279290</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>115769; 123754</t>
+          <t>244403; 261579</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>235699; 660481</t>
+          <t>243533; 663174</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52936</t>
+          <t>102805</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67466</t>
+          <t>117724</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>120402</t>
+          <t>220528</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>49875; 55743</t>
+          <t>96293; 109180</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>221335; 252949</t>
+          <t>220825; 252759</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>63789; 70161</t>
+          <t>111614; 122344</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>215282; 241733</t>
+          <t>215774; 240326</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>115812; 124191</t>
+          <t>211575; 228490</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>445182; 485261</t>
+          <t>443392; 486006</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>41123</t>
+          <t>64855</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51495</t>
+          <t>86387</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92618</t>
+          <t>151242</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>37647; 44194</t>
+          <t>59150; 70262</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>131059; 151923</t>
+          <t>129940; 150666</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48384; 54732</t>
+          <t>80807; 91792</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>148268; 168662</t>
+          <t>146831; 167200</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>88067; 97551</t>
+          <t>143505; 158554</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>282508; 313269</t>
+          <t>283819; 315053</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>37485</t>
+          <t>60513</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>63123</t>
+          <t>98897</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>100607</t>
+          <t>159409</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>34731; 39882</t>
+          <t>55993; 64823</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>100373; 118194</t>
+          <t>100339; 117749</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>59708; 66515</t>
+          <t>92457; 104588</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>160223; 178667</t>
+          <t>158199; 177788</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>95791; 104178</t>
+          <t>152276; 166857</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>266353; 291721</t>
+          <t>264995; 291118</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>260229</t>
+          <t>557169</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>327295</t>
+          <t>649479</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>587524</t>
+          <t>1206649</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>252125; 267761</t>
+          <t>539637; 574641</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>768998; 1325035</t>
+          <t>791880; 1330517</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>319480; 334392</t>
+          <t>632894; 665870</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1081635; 1310133</t>
+          <t>1113002; 1307030</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>577076; 597158</t>
+          <t>1182264; 1228649</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1894450; 2595786</t>
+          <t>1848158; 2595115</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CONF_CAT-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>48,86%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>60,88%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>64,22%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>47,56%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>60,88%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>52,9%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>68,23%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>49,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>60,28%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>50,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>66,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>48,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>60,58%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>38,3; 59,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55,02; 66,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>55,55; 72,34</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>36,18; 59,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>55,02; 66,86</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>43,96; 62,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53,75; 66,39</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>57,05; 77,32</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>40,22; 60,49</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>53,75; 66,39</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>43,72; 57,43</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>56,14; 65,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>59,01; 72,53</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>40,94; 55,82</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>56,14; 65,25</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>62,17%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>63,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>61,96%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>59,96%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>63,76%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>58,93%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>75,93%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>44,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62,44%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>60,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>63,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>68,94%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,86%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>63,05%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>53,6; 69,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57,83; 69,29</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>51,71; 70,82</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>51,08; 68,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>57,83; 69,29</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>52,42; 65,3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56,83; 68,44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>68,08; 82,52</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>22,54; 59,27</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>56,83; 68,44</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>55,27; 65,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58,59; 67,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>62,27; 74,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,28; 60,38</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>58,59; 67,49</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>64,28%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62,07%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>79,8%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>61,3%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>62,07%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>64,71%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>63,57%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>80,1%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>63,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>63,57%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>64,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62,81%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>79,95%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>62,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>62,81%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>58,95; 69,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56,88; 67,25</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>74,32; 84,62</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>55,53; 66,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>56,88; 67,25</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>60,5; 68,95</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>58,33; 68,6</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>74,15; 84,34</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>58,55; 67,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>58,33; 68,6</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>61,06; 67,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58,93; 66,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>76,03; 83,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>58,6; 65,94</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>58,93; 66,07</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>63,65%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>62,1%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>82,79%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>37,56%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>62,1%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>65,27%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62,65%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>84,54%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>65,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>62,65%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>64,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62,36%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>83,66%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48,45%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>62,36%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>58,68; 68,16</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56,88; 66,45</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>78,5; 86,6</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>13,43; 63,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>56,88; 66,45</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>61,38; 69,01</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57,87; 67,37</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>80,28; 88,4</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>61,47; 69,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>57,87; 67,37</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>61,35; 67,39</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>59,01; 65,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>80,86; 86,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,76; 64,7</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>59,01; 65,71</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>70,9%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>79,17%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>70,28%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>62,7%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63,12%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>83,73%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>72,33%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>63,12%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>71,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>81,54%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>71,27%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>62,92%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>66,28; 75,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56,99; 67,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>74,15; 84,08</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>65,41; 74,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>56,99; 67,61</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>68,93; 76,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58,01; 67,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>79,38; 87,01</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>68,14; 75,89</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>58,01; 67,81</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>68,66; 74,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59,31; 66,23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>78,23; 84,48</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>67,77; 74,28</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>59,31; 66,23</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>68,65%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63,12%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>67,44%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>68,32%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>63,12%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>66,08%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>60,88%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>77,3%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>65,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>60,88%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>67,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>61,98%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>72,74%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>66,75%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>61,98%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>63,11; 73,17</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58,72; 67,08</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>61,5; 73,06</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63,02; 73,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>58,72; 67,08</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>61,3; 69,8</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56,04; 65,24</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>72,3; 82,13</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>60,66; 69,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>56,04; 65,24</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>63,85; 70,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>59,04; 64,96</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>69,02; 76,25</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>63,32; 70,29</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>59,04; 64,96</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>74,45%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>75,83%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>74,29%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>59,41%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>73,72%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61,48%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>77,3%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>73,32%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>61,48%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60,63%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>76,74%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>73,7%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>60,63%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>68,12; 79,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54,87; 64,38</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>70,16; 81,23</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>67,92; 79,7</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>54,87; 64,38</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>68,9; 77,48</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57,02; 66,08</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>72,27; 81,75</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>68,67; 77,17</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>57,02; 66,08</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>70,54; 77,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57,28; 63,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>73,3; 80,32</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>70,08; 76,99</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>57,28; 63,88</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62,13%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>74,65%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>55,59%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>62,13%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>65,45%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>62,22%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>79,22%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>62,35%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>62,22%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>65,03%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>62,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>77,04%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>58,91%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>62,18%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>62,19; 66,89</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60,12; 64,16</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>72,3; 76,99</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>38,05; 63,93</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>60,12; 64,16</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>63,68; 67,28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>60,41; 64,06</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>77,2; 81,22</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>55,48; 65,15</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>60,41; 64,06</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>63,43; 66,61</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>60,69; 63,55</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>75,49; 78,45</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>45,22; 63,49</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>60,69; 63,55</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>101</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>196</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>306</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>115677</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>98224</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>44481</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>110337</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>98224</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>114901</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>100448</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>48733</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>90656</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>100448</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>230578</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198671</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>93213</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>200993</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>198671</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>90690; 141075</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88774; 107871</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>38476; 50110</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>83943; 137031</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>88774; 107871</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>95468; 135443</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>89573; 110627</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>40748; 55228</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>73124; 109961</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>89573; 110627</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>198476; 260726</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>184113; 214002</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>83026; 102046</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>169388; 230984</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>184113; 214002</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>110</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>143</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>253</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>364</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>161953</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>114128</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>56493</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>136697</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>114128</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>164865</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>131287</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>69219</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>137739</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>131287</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>326818</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>245415</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>125713</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>274437</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>245415</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>139629; 182329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>103511; 124034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>47149; 64574</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>116440; 156060</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>103511; 124034</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>146663; 182676</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>119480; 143893</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>62063; 75221</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>70225; 184704</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>119480; 143893</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>298603; 354030</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>228062; 262698</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>113545; 135983</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>179571; 325815</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>228062; 262698</t>
         </is>
       </c>
     </row>
@@ -1986,42 +1986,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>226</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>253</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>479</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>525</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>232405</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>154120</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>102655</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>188032</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>154120</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>240496</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>156264</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>101002</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>203474</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>156264</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>472902</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>310384</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>203657</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>391506</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>310384</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>213144; 251445</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141229; 166996</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>95602; 108850</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>170313; 205072</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>141229; 166996</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>224848; 256249</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>143386; 168633</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>93495; 106349</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>188283; 216701</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>143386; 168633</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>447702; 497148</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>291178; 326479</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>193681; 212005</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>368189; 414305</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>291178; 326479</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>329</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>283</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>367</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>696</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>678</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>555</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>266357</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>182726</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>125369</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>233998</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>182726</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>286229</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>171742</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>127517</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>262661</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>171742</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>552586</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>354468</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>252886</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>496659</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>354468</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>245584; 285244</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>167384; 195540</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>118871; 131128</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>83649; 393892</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>167384; 195540</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>269181; 302632</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>158650; 184679</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>121095; 133342</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>247155; 279290</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>158650; 184679</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>525789; 577533</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>335417; 373521</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>244403; 261579</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>243533; 663174</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>335417; 373521</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>312</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>219</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>394</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>407</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>706</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>689</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>467</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>259772</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>143764</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>102805</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>237236</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>143764</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>259279</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>158206</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>117724</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>229038</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>158206</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>301970</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>220528</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>466274</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>301970</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>242850; 276271</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>130676; 155025</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>96293; 109180</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>220825; 252759</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>130676; 155025</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>245278; 271531</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>145400; 169950</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>111614; 122344</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>215774; 240326</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>145400; 169950</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>495865; 539337</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>284662; 317878</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>211575; 228490</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>443392; 486006</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>284662; 317878</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>253</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>338</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>325</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>578</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>615</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>157510</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>112262</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>64855</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>140859</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>112262</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>175325</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>112276</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>86387</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>158343</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>112276</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>332834</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>224538</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>151242</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>299201</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>224538</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>144796; 167880</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>104427; 119295</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>59150; 70262</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>129940; 150666</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>104427; 119295</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>162642; 185183</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>103347; 120307</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>80807; 91792</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>146831; 167200</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>103347; 120307</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>315890; 349743</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>213878; 235334</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>143505; 158554</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>283819; 315053</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>213878; 235334</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>377</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>605</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>556</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>120218</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>82608</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>60513</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>109748</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>82608</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>186685</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>122620</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>98897</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>168929</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>122620</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>306904</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>205228</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>159409</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>278678</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>205228</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>109987; 128584</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>76293; 89512</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>55993; 64823</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>100339; 117749</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>76293; 89512</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>174480; 196213</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>113711; 131782</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>92457; 104588</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>158199; 177788</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>113711; 131782</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>292551; 320866</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>193873; 216213</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>152276; 166857</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>264995; 291118</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>193873; 216213</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1665</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>1559</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1264</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1665</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>1954</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1677</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>3263</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3342</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>3513</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3263</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3342</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>1313891</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>887832</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>557169</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>1156907</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>887832</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>1427780</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>952843</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>649479</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1250840</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>952843</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>2741671</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1840674</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>1206649</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2407748</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1840674</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1265349; 1360967</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>859210; 916975</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>539637; 574641</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>791880; 1330517</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>859210; 916975</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>1389162; 1467836</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>925017; 981003</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>632894; 665870</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>1113002; 1307030</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>925017; 981003</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>2674334; 2808259</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1796579; 1881473</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>1182264; 1228649</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1848158; 2595115</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>1796579; 1881473</t>
         </is>
       </c>
     </row>
